--- a/data/transportation/worksheet.xlsx
+++ b/data/transportation/worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ys11m\Documents\GitHub\JED_validation\data\transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A4289C-367A-4531-A4D9-94B679048F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA09CE-DD3B-4FA6-AA87-350E5E25B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registered_number" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,7 @@
     <sheet name="Cars &amp; vans" sheetId="6" r:id="rId6"/>
     <sheet name="Others" sheetId="7" r:id="rId7"/>
     <sheet name="Two-wheeled vehicles" sheetId="8" r:id="rId8"/>
-    <sheet name="旅客乗用車" sheetId="9" r:id="rId9"/>
-    <sheet name="貨物自動車" sheetId="10" r:id="rId10"/>
-    <sheet name="旅客バス" sheetId="11" r:id="rId11"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">All!$E$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">All!$E$2:$E$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">All!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">All!$E$2:$E$28</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -288,7 +279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -777,7 +768,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2107,7 +2098,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4130,7 +4121,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5493,7 +5484,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6878,7 +6869,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8250,7 +8241,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15751,8 +15742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16412,36 +16403,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03233448-0E05-4FE6-BF95-F707B04115C1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD7978A-6514-45BB-8A04-A053AD9EFFFD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8067AF23-1ABF-4075-AF18-DBBD77EF4699}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19836,16 +19803,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556F0E0F-6C3E-4AA5-B0DB-7E7D5C5C147D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>